--- a/medicine/Psychotrope/Signargues_(côtes-du-rhône_villages)/Signargues_(côtes-du-rhône_villages).xlsx
+++ b/medicine/Psychotrope/Signargues_(côtes-du-rhône_villages)/Signargues_(côtes-du-rhône_villages).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le signargues[2], ou côtes-du-rhône villages Signargues, est un vin rouge produit sur les communes de Domazan, Estézargues, Rochefort-du-Gard et Saze, dans le département du Gard.
+Le signargues, ou côtes-du-rhône villages Signargues, est un vin rouge produit sur les communes de Domazan, Estézargues, Rochefort-du-Gard et Saze, dans le département du Gard.
 Il s'agit d'une des vingt-deux  dénominations géographiques au sein de l'appellation d'origine contrôlée côtes-du-rhône villages, dans la partie méridionale du vignoble de la vallée du Rhône.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>De l'Antiquité au Moyen Âge
-Le plateau fut occupé lors de la colonisation romaine. Un archéologue y a découvert une statuette, aujourd'hui déposée au musée du Louvre, qui représente Bacchus et Ariane[3].
-Il est entré dans l'histoire en 736, après une victoire de Charles Martel contre les Sarrasins. La légende veut qu'il fallût trois jours entiers pour enterrer les morts. En commémoration, le roi Franc fit construire sur ces lieux, une chapelle dédiée à Saint-Jean des Vignes[4].
-Période moderne
-Période contemporaine</t>
+          <t>De l'Antiquité au Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plateau fut occupé lors de la colonisation romaine. Un archéologue y a découvert une statuette, aujourd'hui déposée au musée du Louvre, qui représente Bacchus et Ariane.
+Il est entré dans l'histoire en 736, après une victoire de Charles Martel contre les Sarrasins. La légende veut qu'il fallût trois jours entiers pour enterrer les morts. En commémoration, le roi Franc fit construire sur ces lieux, une chapelle dédiée à Saint-Jean des Vignes.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,66 +593,63 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orographie
-Ce plateau culmine à 150 m d'altitude. Il est érodé par deux vallons dont les rivières intermittentes sont des affluents du Gardon, le Briançon qui a creusé vallon de Domazan et la Combe de Mars[5].
-Géologie
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce plateau culmine à 150 m d'altitude. Il est érodé par deux vallons dont les rivières intermittentes sont des affluents du Gardon, le Briançon qui a creusé vallon de Domazan et la Combe de Mars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 le mistral assainit le vignoble ;
 la saisonnalité des pluies est très marquée ;
 les températures sont très chaudes pendant l'été.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur les communes de Domazan, Estézargues, Rochefort-du-Gard et Saze.
-Encépagement
-Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
-Méthodes culturales
-Terroir et vins
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
-Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-Type de vins et gastronomie
-Ces vins rouges s'accordent bien avec des viandes rouges (grillées ou en sauce), des gibiers à plumes, du fromage fort. Ces vins se servent aux environs de 15° et ont une durée de garde moyenne de trois à cinq ans.
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,10 +664,161 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de Domazan, Estézargues, Rochefort-du-Gard et Saze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rouges sont principalement fait à partir du grenache N, complété par de la syrah N, du mourvèdre N et accessoirement du brun argenté N (localement dénommé camarèse ou vaccarèse), du carignan N, du cinsaut N, de la counoise N, du muscardin N, du piquepoul noir N et du terret noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces vins rouges s'accordent bien avec des viandes rouges (grillées ou en sauce), des gibiers à plumes, du fromage fort. Ces vins se servent aux environs de 15° et ont une durée de garde moyenne de trois à cinq ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Signargues_(côtes-du-rhône_villages)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Signargues_(c%C3%B4tes-du-rh%C3%B4ne_villages)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>La place de Signargues parmi les côtes-du-rhône villages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
